--- a/Assessments/Unit4/4.2.4/RandyRenovations.xlsx
+++ b/Assessments/Unit4/4.2.4/RandyRenovations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/Assessments/Unit4/4.2.3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/Assessments/Unit4/4.2.4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FE07974-AC4F-4119-8B0C-63544D0AF9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{4F4E29C9-6E0A-4E8D-99F7-794D54619A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5EA4C61D-8A34-4942-A085-A5D22519AD36}"/>
   </bookViews>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740C1795-EEFD-4017-ACB3-B427E1D715AE}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -483,7 +483,18 @@
         <v>45</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" enabled="0" method="" siteId="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" removed="1"/>
+</clbl:labelList>
 </file>